--- a/uploads/student_import.xlsx
+++ b/uploads/student_import.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -38,12 +38,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>roll</t>
-  </si>
-  <si>
     <t>birthdate</t>
   </si>
   <si>
@@ -59,7 +53,70 @@
     <t>rajivsharma@gmail.com</t>
   </si>
   <si>
-    <t>student_id</t>
+    <t>joindate</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>guuardian</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>county</t>
+  </si>
+  <si>
+    <t>LKG-A</t>
+  </si>
+  <si>
+    <t>LKG-B</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>4A</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>maria</t>
+  </si>
+  <si>
+    <t>martin luther</t>
+  </si>
+  <si>
+    <t>farmer</t>
+  </si>
+  <si>
+    <t>newyork</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>serena</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
 </sst>
 </file>
@@ -410,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,12 +485,12 @@
     <col min="8" max="8" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -448,51 +505,137 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
       </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>36956</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>8076658665</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>12345678</v>
-      </c>
-      <c r="H2">
-        <v>101</v>
-      </c>
-      <c r="I2">
-        <v>1001</v>
+        <v>9</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43896</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="F3" s="2"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1">
+        <v>36956</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>8076658665</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>43896</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
